--- a/Website work plan revised for Phase One  (2) (Autosaved).xlsx
+++ b/Website work plan revised for Phase One  (2) (Autosaved).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apainsurance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9467" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Front End " sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="413">
   <si>
     <t xml:space="preserve">WORKPLAN </t>
   </si>
@@ -1281,18 +1286,30 @@
   <si>
     <t>to be discussed</t>
   </si>
+  <si>
+    <t>C               1</t>
+  </si>
+  <si>
+    <t>C                1</t>
+  </si>
+  <si>
+    <t>C               2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C          0.5</t>
+  </si>
+  <si>
+    <t>C            0.5</t>
+  </si>
+  <si>
+    <t>C             0.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1325,159 +1342,8 @@
       <name val="Cambria"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1526,194 +1392,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1747,251 +1427,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2019,61 +1457,17 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2331,21 +1725,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO138"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
@@ -2390,12 +1783,12 @@
     <col min="43" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:41">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:41">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2414,7 +1807,7 @@
         <v>37073</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:41">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2427,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:41">
+    <row r="4" spans="1:41" ht="31.5">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2552,14 +1945,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:41">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:41">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2571,7 +1964,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +1988,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2619,7 +2012,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="1:41">
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2628,7 +2021,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="6:12">
+    <row r="10" spans="1:41">
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2637,7 +2030,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:41">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2649,7 +2042,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2066,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2697,7 +2090,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2721,7 +2114,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2745,7 +2138,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -2937,7 +2330,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="6:12">
+    <row r="24" spans="1:12">
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -2946,7 +2339,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="6:12">
+    <row r="25" spans="1:12">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -3435,7 +2828,7 @@
       <c r="K45" s="11"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="6:12">
+    <row r="46" spans="1:12">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -3444,7 +2837,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" ht="17.1" customHeight="1" spans="6:12">
+    <row r="47" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -3453,7 +2846,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="6:12">
+    <row r="48" spans="1:12">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -3462,7 +2855,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:18">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -3474,7 +2867,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:18">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -3498,7 +2891,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -3522,7 +2915,7 @@
       <c r="K51" s="10"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -3546,7 +2939,7 @@
       <c r="K52" s="10"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -3566,7 +2959,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -3586,7 +2979,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -3606,7 +2999,7 @@
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -3626,13 +3019,13 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:18">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -3651,7 +3044,7 @@
       <c r="H59" s="18"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:18">
       <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
@@ -3659,7 +3052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:18">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
@@ -3678,7 +3071,7 @@
       <c r="I62" s="10"/>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -3719,7 +3112,7 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:38">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
@@ -3741,7 +3134,7 @@
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:38">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -3754,7 +3147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:38">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -3773,7 +3166,7 @@
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:38">
       <c r="A68" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,7 +3187,7 @@
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:38">
       <c r="A69" s="1" t="s">
         <v>89</v>
       </c>
@@ -3812,7 +3205,7 @@
       </c>
       <c r="X69" s="10"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:38">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
@@ -3834,7 +3227,7 @@
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:38">
       <c r="A71" s="1" t="s">
         <v>94</v>
       </c>
@@ -3853,7 +3246,7 @@
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:38">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
@@ -3871,7 +3264,7 @@
       </c>
       <c r="AC72" s="10"/>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:38">
       <c r="A73" s="1" t="s">
         <v>100</v>
       </c>
@@ -3889,7 +3282,7 @@
       </c>
       <c r="AD73" s="10"/>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:38">
       <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
@@ -3907,7 +3300,7 @@
       </c>
       <c r="AE74" s="10"/>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:38">
       <c r="A75" s="1" t="s">
         <v>105</v>
       </c>
@@ -3925,7 +3318,7 @@
       </c>
       <c r="AF75" s="10"/>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:38">
       <c r="A76" s="1" t="s">
         <v>107</v>
       </c>
@@ -3944,7 +3337,7 @@
       <c r="AG76" s="10"/>
       <c r="AK76" s="10"/>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:38">
       <c r="A77" s="1" t="s">
         <v>110</v>
       </c>
@@ -3980,12 +3373,12 @@
       </c>
       <c r="AL78" s="10"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:38">
       <c r="A80" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
         <v>74</v>
       </c>
@@ -4005,7 +3398,7 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
@@ -4088,48 +3481,48 @@
       <c r="J85" s="10"/>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" s="12" customFormat="1" spans="1:1">
+    <row r="86" spans="1:11" s="12" customFormat="1">
       <c r="A86" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" s="17" customFormat="1" spans="1:1">
+    <row r="88" spans="1:11" s="17" customFormat="1">
       <c r="A88" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:11">
       <c r="A89" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
         <v>127</v>
       </c>
@@ -4140,27 +3533,27 @@
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>48</v>
       </c>
@@ -4171,27 +3564,27 @@
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>48</v>
       </c>
@@ -4202,37 +3595,37 @@
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -4243,27 +3636,27 @@
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>144</v>
       </c>
@@ -4277,34 +3670,33 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="1:3">
       <c r="B135" s="7"/>
       <c r="C135" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="1:3">
       <c r="B136" s="10"/>
       <c r="C136" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="1:3">
       <c r="B137" s="11"/>
       <c r="C137" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="1:3">
       <c r="B138" s="12"/>
       <c r="C138" s="1" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="19" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="19" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="57" max="53" man="1"/>
   </rowBreaks>
@@ -4312,7 +3704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4322,7 +3714,7 @@
       <selection activeCell="B44" sqref="B44:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="42.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
@@ -4366,12 +3758,12 @@
     <col min="43" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:42">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:42">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4390,7 +3782,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:42">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4403,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:42">
+    <row r="4" spans="1:42" ht="31.5">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4531,7 +3923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:42">
       <c r="A5" s="3" t="s">
         <v>152</v>
       </c>
@@ -4540,14 +3932,14 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:42">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:42">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4559,7 +3951,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:42">
       <c r="A8" s="1" t="s">
         <v>153</v>
       </c>
@@ -4583,7 +3975,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:42">
       <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
@@ -4607,7 +3999,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:42">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4631,7 +4023,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:42">
       <c r="A11" s="1" t="s">
         <v>159</v>
       </c>
@@ -4655,7 +4047,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -4679,7 +4071,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:42">
       <c r="A13" s="1" t="s">
         <v>161</v>
       </c>
@@ -4703,7 +4095,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:42">
       <c r="A14" s="1" t="s">
         <v>162</v>
       </c>
@@ -4727,7 +4119,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="1:42">
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -4736,7 +4128,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="6:12">
+    <row r="16" spans="1:42">
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -4928,7 +4320,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -4945,7 +4337,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -4962,7 +4354,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -4979,12 +4371,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:12">
       <c r="B28" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -4995,7 +4387,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -5006,7 +4398,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -5017,7 +4409,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -5116,7 +4508,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>183</v>
       </c>
@@ -5243,12 +4635,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>203</v>
       </c>
@@ -5355,7 +4747,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>211</v>
       </c>
@@ -5516,7 +4908,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>121</v>
       </c>
@@ -5605,14 +4997,13 @@
       <c r="A112" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5622,7 +5013,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="50.375" customWidth="1"/>
@@ -5680,7 +5071,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" ht="30" spans="1:7">
+    <row r="5" spans="1:7" ht="31.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5706,7 +5097,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" ht="60" spans="1:7">
+    <row r="7" spans="1:7" ht="63">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5902,7 +5293,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" ht="30" spans="1:7">
+    <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -6164,22 +5555,20 @@
       <c r="G50" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU132"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="39.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
@@ -6226,7 +5615,7 @@
     <col min="48" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:47">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6236,7 +5625,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:47">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6260,7 +5649,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:47">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>248</v>
@@ -6288,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:47">
+    <row r="4" spans="1:47" ht="31.5">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6431,7 +5820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:47">
       <c r="A5" s="3" t="s">
         <v>152</v>
       </c>
@@ -6445,7 +5834,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:47">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6457,7 +5846,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:47">
       <c r="A7" s="2" t="s">
         <v>258</v>
       </c>
@@ -6474,7 +5863,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:47">
       <c r="A8" s="2" t="s">
         <v>259</v>
       </c>
@@ -6493,7 +5882,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:47">
       <c r="A9" s="1" t="s">
         <v>261</v>
       </c>
@@ -6520,7 +5909,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:47">
       <c r="A10" s="1" t="s">
         <v>266</v>
       </c>
@@ -6547,7 +5936,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:47">
       <c r="A11" s="1" t="s">
         <v>268</v>
       </c>
@@ -6574,7 +5963,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:47">
       <c r="A12" s="1" t="s">
         <v>269</v>
       </c>
@@ -6601,7 +5990,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:47">
       <c r="A13" s="1" t="s">
         <v>271</v>
       </c>
@@ -6625,7 +6014,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:47">
       <c r="A14" s="1" t="s">
         <v>272</v>
       </c>
@@ -6652,7 +6041,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:47">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -6679,7 +6068,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:47">
       <c r="A16" s="1" t="s">
         <v>273</v>
       </c>
@@ -6730,7 +6119,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="11:17">
+    <row r="18" spans="1:17">
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -6924,7 +6313,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>279</v>
       </c>
@@ -6947,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>127</v>
       </c>
@@ -6967,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:17">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6975,7 +6364,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:17">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6983,7 +6372,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
         <v>281</v>
       </c>
@@ -6995,7 +6384,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>261</v>
       </c>
@@ -7037,7 +6426,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:9">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -7045,7 +6434,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:9">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -7053,7 +6442,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>282</v>
       </c>
@@ -7251,7 +6640,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:9">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -7259,7 +6648,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
         <v>291</v>
       </c>
@@ -7331,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
         <v>128</v>
       </c>
@@ -7383,7 +6772,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
         <v>295</v>
       </c>
@@ -7455,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
         <v>297</v>
       </c>
@@ -7527,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
         <v>135</v>
       </c>
@@ -7619,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
         <v>301</v>
       </c>
@@ -7911,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
         <v>29</v>
       </c>
@@ -8341,7 +7730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:9">
       <c r="A118" s="2" t="s">
         <v>313</v>
       </c>
@@ -8433,7 +7822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
         <v>314</v>
       </c>
@@ -8485,7 +7874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
         <v>142</v>
       </c>
@@ -8538,21 +7927,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
@@ -8597,12 +7984,12 @@
     <col min="43" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:41">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:41">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -8621,7 +8008,7 @@
         <v>37073</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:41">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -8634,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:41">
+    <row r="4" spans="1:41" ht="31.5">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -8759,14 +8146,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:41">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:41">
       <c r="A6" s="2" t="s">
         <v>316</v>
       </c>
@@ -8778,7 +8165,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>317</v>
       </c>
@@ -8793,7 +8180,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>318</v>
       </c>
@@ -8808,7 +8195,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="1:41">
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -8817,7 +8204,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>319</v>
       </c>
@@ -8829,7 +8216,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>320</v>
       </c>
@@ -8844,7 +8231,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>321</v>
       </c>
@@ -8859,7 +8246,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" ht="30" spans="1:12">
+    <row r="13" spans="1:41" ht="31.5">
       <c r="A13" s="4" t="s">
         <v>322</v>
       </c>
@@ -8874,7 +8261,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>324</v>
       </c>
@@ -8889,7 +8276,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>325</v>
       </c>
@@ -8904,7 +8291,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>326</v>
       </c>
@@ -8994,7 +8381,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="6:12">
+    <row r="22" spans="1:12">
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -9003,7 +8390,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="6:12">
+    <row r="23" spans="1:12">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -9268,7 +8655,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="6:12">
+    <row r="42" spans="1:12">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -9277,7 +8664,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="6:12">
+    <row r="43" spans="1:12">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -9328,12 +8715,12 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" ht="30" spans="1:12">
+    <row r="47" spans="1:12" ht="31.5">
       <c r="A47" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D47" s="1">
-        <v>0.5</v>
+      <c r="D47" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -9347,8 +8734,8 @@
       <c r="A48" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D48" s="1">
-        <v>0.5</v>
+      <c r="D48" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -9373,12 +8760,12 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" ht="31.5">
       <c r="A50" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D50" s="1">
-        <v>0.5</v>
+      <c r="D50" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -9392,8 +8779,8 @@
       <c r="A51" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D51" s="1">
-        <v>0.5</v>
+      <c r="D51" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -9418,7 +8805,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="6:12">
+    <row r="53" spans="1:12">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -9443,8 +8830,8 @@
       <c r="A55" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D55" s="1">
-        <v>1</v>
+      <c r="D55" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -9458,8 +8845,8 @@
       <c r="A56" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D56" s="1">
-        <v>2</v>
+      <c r="D56" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -9563,8 +8950,8 @@
       <c r="A63" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
+      <c r="D63" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -9724,7 +9111,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="6:12">
+    <row r="74" spans="1:12">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -9733,7 +9120,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="6:12">
+    <row r="75" spans="1:12">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -9979,7 +9366,7 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="6:12">
+    <row r="92" spans="1:12">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -10390,7 +9777,7 @@
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" spans="6:12">
+    <row r="120" spans="1:12">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -10399,7 +9786,7 @@
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" spans="6:12">
+    <row r="121" spans="1:12">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -10408,7 +9795,7 @@
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="6:12">
+    <row r="122" spans="1:12">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -10417,7 +9804,7 @@
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="6:12">
+    <row r="123" spans="1:12">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -10426,7 +9813,7 @@
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="6:12">
+    <row r="124" spans="1:12">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
@@ -10435,13 +9822,13 @@
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="126" spans="2:3">
+    <row r="126" spans="1:12">
       <c r="B126" s="9"/>
       <c r="C126" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
         <v>145</v>
       </c>
@@ -10450,7 +9837,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="2:3">
+    <row r="128" spans="1:12">
       <c r="B128" s="10"/>
       <c r="C128" s="1" t="s">
         <v>148</v>
@@ -10477,8 +9864,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Website work plan revised for Phase One  (2) (Autosaved).xlsx
+++ b/Website work plan revised for Phase One  (2) (Autosaved).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="414">
   <si>
     <t xml:space="preserve">WORKPLAN </t>
   </si>
@@ -1303,6 +1303,9 @@
   </si>
   <si>
     <t>C             0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C            2</t>
   </si>
 </sst>
 </file>
@@ -7935,8 +7938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -8860,8 +8863,8 @@
       <c r="A57" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D57" s="1">
-        <v>2</v>
+      <c r="D57" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
